--- a/template/ebay.xlsx
+++ b/template/ebay.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowHeight="15640"/>
   </bookViews>
   <sheets>
-    <sheet name="LWT for Amzon" sheetId="1" r:id="rId4"/>
-    <sheet name="公式模版" sheetId="2" r:id="rId5"/>
+    <sheet name="LWT for Amzon" sheetId="1" r:id="rId1"/>
+    <sheet name="公式模版" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>European eBay Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -150,10 +153,10 @@
     <t>Profit Rate</t>
   </si>
   <si>
-    <t>Ground Sercice Rate</t>
-  </si>
-  <si>
-    <t>Ground Sercice Fee</t>
+    <t>Ground Service Rate</t>
+  </si>
+  <si>
+    <t>Ground Service Fee</t>
   </si>
   <si>
     <t>Warehouse Rate</t>
@@ -200,6 +203,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">exchange rate </t>
     </r>
@@ -209,6 +213,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -222,6 +227,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/</t>
     </r>
@@ -232,6 +238,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Category commission rate </t>
     </r>
@@ -241,6 +248,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -254,6 +262,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.ebay.de/help/selling/fees-credits-invoices/gebhren-fr-gewerbliche-verkufer?id=4122</t>
     </r>
@@ -264,6 +273,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">PayPal </t>
     </r>
@@ -273,6 +283,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -283,6 +294,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://verkaeuferportal.ebay.de/paypal-gebuehren</t>
     </r>
@@ -296,6 +308,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.paypal.com/de/webapps/mpp/paypal-fees</t>
     </r>
@@ -312,6 +325,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">_eBay fulfillment </t>
     </r>
@@ -321,6 +335,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -331,6 +346,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://verkaeuferportal.ebay.de/angebote-unserer-versandpartner</t>
     </r>
@@ -341,6 +357,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.dhl.de/en/privatkunden/pakete-versenden/deutschlandweit-versenden/preise-national.html</t>
     </r>
@@ -351,6 +368,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">_Storage Fee </t>
     </r>
@@ -360,6 +378,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -410,6 +429,12 @@
     <t>Fulfillment fee</t>
   </si>
   <si>
+    <t>Ground Sercice Rate</t>
+  </si>
+  <si>
+    <t>Ground Sercice Fee</t>
+  </si>
+  <si>
     <t>Delivery To Amazon</t>
   </si>
   <si>
@@ -426,86 +451,230 @@
   </si>
   <si>
     <t>https://www.amazon.co.uk/gp/product/B07Y82XX51</t>
-  </si>
-  <si>
-    <t>0.0000%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0000"/>
-    <numFmt numFmtId="60" formatCode="0.00&quot; &quot;"/>
-    <numFmt numFmtId="61" formatCode="0.000"/>
-    <numFmt numFmtId="62" formatCode="0.000000"/>
-    <numFmt numFmtId="63" formatCode="#,##0&quot; &quot;"/>
-    <numFmt numFmtId="64" formatCode="0.00000000&quot; &quot;"/>
-    <numFmt numFmtId="65" formatCode="#,##0.00&quot; &quot;"/>
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot; &quot;"/>
+    <numFmt numFmtId="181" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="0.00000000&quot; &quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="30"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color indexed="14"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color indexed="15"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color indexed="15"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,28 +684,238 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,32 +927,6 @@
       </right>
       <top style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -601,37 +954,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -657,34 +983,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -704,254 +1008,573 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="69">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="64" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="65" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd9e1f2"/>
-      <rgbColor rgb="ffd9e0f2"/>
-      <rgbColor rgb="ff00b0f0"/>
-      <rgbColor rgb="ff2d4d6a"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00D9E1F2"/>
+      <rgbColor rgb="00D9E0F2"/>
+      <rgbColor rgb="0000B0F0"/>
+      <rgbColor rgb="002D4D6A"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -972,8 +1595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8483599" y="643657"/>
-          <a:ext cx="2710182" cy="383047"/>
+          <a:off x="7936865" y="643255"/>
+          <a:ext cx="2520950" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,11 +1607,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1010,8 +1628,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1023,7 +1640,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1035,6 +1652,16 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1060,8 +1687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14484819" y="645562"/>
-          <a:ext cx="245441" cy="383047"/>
+          <a:off x="13571855" y="645160"/>
+          <a:ext cx="201295" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,11 +1699,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1098,8 +1720,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1111,7 +1732,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1123,6 +1744,16 @@
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1148,8 +1779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17984938" y="661437"/>
-          <a:ext cx="245441" cy="383047"/>
+          <a:off x="16835755" y="661035"/>
+          <a:ext cx="197485" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,11 +1791,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1186,8 +1812,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1199,7 +1824,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1211,6 +1836,16 @@
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1236,8 +1871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19509011" y="665882"/>
-          <a:ext cx="232596" cy="383047"/>
+          <a:off x="18263235" y="665480"/>
+          <a:ext cx="177165" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,11 +1883,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1274,8 +1904,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1287,7 +1916,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1299,6 +1928,16 @@
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1324,8 +1963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22584727" y="658262"/>
-          <a:ext cx="266060" cy="383047"/>
+          <a:off x="21148675" y="657860"/>
+          <a:ext cx="206375" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,11 +1975,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1362,8 +1996,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1375,7 +2008,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1387,6 +2020,16 @@
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1412,8 +2055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23827511" y="642186"/>
-          <a:ext cx="266060" cy="383047"/>
+          <a:off x="22285325" y="641985"/>
+          <a:ext cx="230505" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,11 +2067,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1450,8 +2088,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1463,7 +2100,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1475,6 +2112,16 @@
             </a:rPr>
             <a:t>5</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1484,7 +2131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -1683,8 +2330,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -1704,8 +2349,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1717,7 +2361,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1734,8 +2378,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1760,8 +2403,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1786,8 +2428,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1812,8 +2453,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1838,8 +2478,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1864,8 +2503,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1890,8 +2528,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1916,8 +2553,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1942,8 +2578,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1956,9 +2591,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1972,8 +2613,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1993,8 +2632,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2019,8 +2657,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2045,8 +2682,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2071,8 +2707,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2097,8 +2732,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2123,8 +2757,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2149,8 +2782,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2175,8 +2807,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2201,8 +2832,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2227,8 +2857,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2241,9 +2870,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2254,8 +2889,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -2275,8 +2908,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2288,7 +2920,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2305,8 +2937,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2331,8 +2962,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2357,8 +2987,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2383,8 +3012,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2409,8 +3037,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2435,8 +3062,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2461,8 +3087,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2487,8 +3112,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2513,8 +3137,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2527,9 +3150,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -2538,60 +3167,1259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.67188" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.66964285714286" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.84821428571429" style="1" customWidth="1"/>
     <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.67188" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85156" style="1" customWidth="1"/>
-    <col min="15" max="17" width="8.85156" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.67188" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.17188" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.66964285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.84821428571429" style="1" customWidth="1"/>
+    <col min="15" max="17" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.66964285714286" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.16964285714286" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.8516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.35156" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.8482142857143" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.34821428571429" style="1" customWidth="1"/>
     <col min="24" max="24" width="6.5" style="1" customWidth="1"/>
     <col min="25" max="26" width="9.5" style="1" customWidth="1"/>
     <col min="27" max="28" width="11" style="1" customWidth="1"/>
-    <col min="29" max="30" width="13.6719" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.35156" style="1" customWidth="1"/>
+    <col min="29" max="30" width="13.6696428571429" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.34821428571429" style="1" customWidth="1"/>
     <col min="32" max="33" width="7" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.35156" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.34821428571429" style="1" customWidth="1"/>
     <col min="35" max="35" width="5.5" style="1" customWidth="1"/>
     <col min="36" max="36" width="6" style="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.85156" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6719" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.3516" style="1" customWidth="1"/>
-    <col min="41" max="42" width="10.6719" style="1" customWidth="1"/>
+    <col min="38" max="38" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="41" max="42" width="10.6696428571429" style="1" customWidth="1"/>
     <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.6719" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.6696428571429" style="1" customWidth="1"/>
     <col min="45" max="46" width="13" style="1" customWidth="1"/>
     <col min="47" max="47" width="9" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.8516" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.8482142857143" style="1" customWidth="1"/>
     <col min="49" max="49" width="19" style="1" customWidth="1"/>
     <col min="50" max="50" width="8" style="1" customWidth="1"/>
     <col min="51" max="51" width="8.5" style="1" customWidth="1"/>
-    <col min="52" max="52" width="9.85156" style="1" customWidth="1"/>
-    <col min="53" max="53" width="13.8516" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="52" max="52" width="9.84821428571429" style="1" customWidth="1"/>
+    <col min="53" max="53" width="13.8482142857143" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="8.84821428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="34.5" customHeight="1" spans="1:53">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="65"/>
+    </row>
+    <row r="2" ht="26.5" customHeight="1" spans="1:53">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:53">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA3" s="31"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:53">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="66"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:53">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="67"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1" spans="1:53">
+      <c r="A6" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="58"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="58"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="67"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="34"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="34"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="34"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:53">
+      <c r="A10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="34"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:53">
+      <c r="A11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="34"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:53">
+      <c r="A12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="34"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A13" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="34"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:53">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="34"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A15" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="34"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:53">
+      <c r="A16" s="43"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="58"/>
+      <c r="AT16" s="58"/>
+      <c r="AU16" s="58"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="67"/>
+    </row>
+    <row r="17" ht="25.5" customHeight="1" spans="1:53">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="60"/>
+      <c r="AU17" s="60"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="60"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="64"/>
+      <c r="BA17" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:AZ1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="BA2:BA3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId2" display="https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://www.ebay.de/help/selling/fees-credits-invoices/gebhren-fr-gewerbliche-verkufer?id=4122"/>
+    <hyperlink ref="D9" r:id="rId4" display="https://verkaeuferportal.ebay.de/paypal-gebuehren"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://www.paypal.com/de/webapps/mpp/paypal-fees"/>
+    <hyperlink ref="D13" r:id="rId6" display="https://verkaeuferportal.ebay.de/angebote-unserer-versandpartner"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://www.dhl.de/en/privatkunden/pakete-versenden/deutschlandweit-versenden/preise-national.html"/>
+  </hyperlinks>
+  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BA10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="13" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.66964285714286" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.66964285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="17" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1696428571429" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.34821428571429" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.16964285714286" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.34821428571429" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4" style="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.3482142857143" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.8482142857143" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5" style="1" customWidth="1"/>
+    <col min="31" max="33" width="11.8482142857143" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5" style="1" customWidth="1"/>
+    <col min="35" max="36" width="5.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10" style="1" customWidth="1"/>
+    <col min="38" max="38" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="41" max="42" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="43" max="43" width="9" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.1696428571429" style="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.8482142857143" style="1" customWidth="1"/>
+    <col min="49" max="49" width="19" style="1" customWidth="1"/>
+    <col min="50" max="51" width="8" style="1" customWidth="1"/>
+    <col min="52" max="52" width="8.16964285714286" style="1" customWidth="1"/>
+    <col min="53" max="53" width="13.8482142857143" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="8.84821428571429" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="8" customHeight="1" spans="1:53">
+      <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2642,1311 +4470,117 @@
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="5"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="28"/>
     </row>
-    <row r="2" ht="26.5" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" ht="34.5" customHeight="1" spans="1:53">
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="29"/>
+    </row>
+    <row r="3" ht="26.5" customHeight="1" spans="1:53">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="6">
+      <c r="B3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="6">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="6">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s" s="6">
+      <c r="K3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="6">
+      <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="S2" s="7"/>
-      <c r="T2" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="AW2" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="AX2" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" t="s" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
-      <c r="N3" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="V3" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="X3" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="Y3" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="AA3" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="AB3" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="AC3" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="AD3" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="AE3" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="AF3" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="AH3" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="AI3" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="AJ3" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="AL3" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="AM3" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="AN3" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="AO3" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="AP3" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="AQ3" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="AS3" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="AT3" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="AU3" t="s" s="6">
-        <v>55</v>
-      </c>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="AY3" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="AZ3" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="BA3" s="11"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="18"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="25"/>
-    </row>
-    <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>59</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="25"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" t="s" s="32">
-        <v>60</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" t="s" s="33">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s" s="34">
-        <v>62</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="35"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" t="s" s="32">
-        <v>63</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" t="s" s="33">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s" s="34">
-        <v>65</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="35"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" t="s" s="32">
-        <v>66</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" t="s" s="33">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s" s="34">
-        <v>67</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="35"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="32">
-        <v>68</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" t="s" s="34">
-        <v>69</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="35"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="32">
-        <v>70</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="35"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="32">
-        <v>71</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="35"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" t="s" s="32">
-        <v>72</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" t="s" s="33">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s" s="34">
-        <v>73</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="35"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" t="s" s="34">
-        <v>74</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="20"/>
-      <c r="AV14" s="20"/>
-      <c r="AW14" s="20"/>
-      <c r="AX14" s="20"/>
-      <c r="AY14" s="20"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="35"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" t="s" s="32">
-        <v>75</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" t="s" s="33">
-        <v>64</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="20"/>
-      <c r="AS15" s="20"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="20"/>
-      <c r="AX15" s="20"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="35"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="20"/>
-      <c r="AW16" s="20"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="20"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="25"/>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" t="s" s="43">
-        <v>76</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" t="s" s="45">
-        <v>77</v>
-      </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="47"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="47"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="48"/>
-      <c r="BA17" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:AZ1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="BA2:BA3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" location="" tooltip="" display="https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/"/>
-    <hyperlink ref="D8" r:id="rId2" location="" tooltip="" display="https://www.ebay.de/help/selling/fees-credits-invoices/gebhren-fr-gewerbliche-verkufer?id=4122"/>
-    <hyperlink ref="D9" r:id="rId3" location="" tooltip="" display="https://verkaeuferportal.ebay.de/paypal-gebuehren"/>
-    <hyperlink ref="D10" r:id="rId4" location="" tooltip="" display="https://www.paypal.com/de/webapps/mpp/paypal-fees"/>
-    <hyperlink ref="D13" r:id="rId5" location="" tooltip="" display="https://verkaeuferportal.ebay.de/angebote-unserer-versandpartner"/>
-    <hyperlink ref="D14" r:id="rId6" location="" tooltip="" display="https://www.dhl.de/en/privatkunden/pakete-versenden/deutschlandweit-versenden/preise-national.html"/>
-  </hyperlinks>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BA10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="10.6719" style="50" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="50" customWidth="1"/>
-    <col min="3" max="3" width="7.67188" style="50" customWidth="1"/>
-    <col min="4" max="8" width="8.85156" style="50" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="50" customWidth="1"/>
-    <col min="11" max="11" width="9" style="50" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="50" customWidth="1"/>
-    <col min="13" max="13" width="6.67188" style="50" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="50" customWidth="1"/>
-    <col min="15" max="17" width="8.85156" style="50" customWidth="1"/>
-    <col min="18" max="18" width="9" style="50" customWidth="1"/>
-    <col min="19" max="19" width="10.1719" style="50" customWidth="1"/>
-    <col min="20" max="20" width="9.35156" style="50" customWidth="1"/>
-    <col min="21" max="21" width="11.3516" style="50" customWidth="1"/>
-    <col min="22" max="22" width="9.17188" style="50" customWidth="1"/>
-    <col min="23" max="23" width="4.35156" style="50" customWidth="1"/>
-    <col min="24" max="24" width="4" style="50" customWidth="1"/>
-    <col min="25" max="26" width="13" style="50" customWidth="1"/>
-    <col min="27" max="27" width="14.3516" style="50" customWidth="1"/>
-    <col min="28" max="28" width="14" style="50" customWidth="1"/>
-    <col min="29" max="29" width="16.8516" style="50" customWidth="1"/>
-    <col min="30" max="30" width="17.5" style="50" customWidth="1"/>
-    <col min="31" max="33" width="11.8516" style="50" customWidth="1"/>
-    <col min="34" max="34" width="5" style="50" customWidth="1"/>
-    <col min="35" max="36" width="5.5" style="50" customWidth="1"/>
-    <col min="37" max="37" width="10" style="50" customWidth="1"/>
-    <col min="38" max="38" width="8.85156" style="50" customWidth="1"/>
-    <col min="39" max="39" width="10.6719" style="50" customWidth="1"/>
-    <col min="40" max="40" width="11.3516" style="50" customWidth="1"/>
-    <col min="41" max="42" width="10.6719" style="50" customWidth="1"/>
-    <col min="43" max="43" width="9" style="50" customWidth="1"/>
-    <col min="44" max="44" width="14.1719" style="50" customWidth="1"/>
-    <col min="45" max="45" width="14.5" style="50" customWidth="1"/>
-    <col min="46" max="46" width="13" style="50" customWidth="1"/>
-    <col min="47" max="47" width="9" style="50" customWidth="1"/>
-    <col min="48" max="48" width="14.8516" style="50" customWidth="1"/>
-    <col min="49" max="49" width="19" style="50" customWidth="1"/>
-    <col min="50" max="51" width="8" style="50" customWidth="1"/>
-    <col min="52" max="52" width="8.17188" style="50" customWidth="1"/>
-    <col min="53" max="53" width="13.8516" style="50" customWidth="1"/>
-    <col min="54" max="16384" width="8.85156" style="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="8" customHeight="1">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
-    </row>
-    <row r="2" ht="34.5" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="54"/>
-    </row>
-    <row r="3" ht="26.5" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s" s="6">
+      <c r="N3" s="6" t="s">
         <v>81</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" t="s" s="6">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="7"/>
-      <c r="T3" t="s" s="6">
+      <c r="T3" s="6" t="s">
         <v>82</v>
       </c>
       <c r="U3" s="7"/>
@@ -3963,11 +4597,11 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" t="s" s="6">
+      <c r="AI3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="AJ3" s="7"/>
-      <c r="AK3" t="s" s="6">
+      <c r="AK3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AL3" s="7"/>
@@ -3980,607 +4614,607 @@
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
-      <c r="AV3" t="s" s="6">
+      <c r="AV3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AW3" t="s" s="6">
+      <c r="AW3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AX3" t="s" s="6">
+      <c r="AX3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
-      <c r="BA3" t="s" s="8">
+      <c r="BA3" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
+    <row r="4" ht="60" customHeight="1" spans="1:53">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="7"/>
-      <c r="N4" t="s" s="6">
+      <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="6">
+      <c r="O4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="s" s="6">
+      <c r="P4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" t="s" s="6">
+      <c r="Q4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s" s="6">
+      <c r="R4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S4" t="s" s="6">
+      <c r="S4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T4" t="s" s="6">
+      <c r="T4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="U4" t="s" s="10">
+      <c r="U4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="V4" t="s" s="6">
+      <c r="V4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="W4" t="s" s="6">
+      <c r="W4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X4" t="s" s="6">
+      <c r="X4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" t="s" s="6">
+      <c r="Y4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="Z4" t="s" s="6">
+      <c r="Z4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" t="s" s="6">
+      <c r="AA4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AB4" t="s" s="6">
+      <c r="AB4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" t="s" s="6">
+      <c r="AC4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" t="s" s="6">
+      <c r="AD4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" t="s" s="6">
+      <c r="AE4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AF4" t="s" s="6">
+      <c r="AF4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AG4" t="s" s="6">
+      <c r="AG4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" t="s" s="6">
+      <c r="AH4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" t="s" s="6">
+      <c r="AI4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AJ4" t="s" s="6">
+      <c r="AJ4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AK4" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="AL4" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="AM4" t="s" s="6">
+      <c r="AK4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AN4" t="s" s="6">
+      <c r="AN4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AO4" t="s" s="6">
+      <c r="AO4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AP4" t="s" s="6">
+      <c r="AP4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AQ4" t="s" s="6">
+      <c r="AQ4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AR4" t="s" s="6">
-        <v>91</v>
-      </c>
-      <c r="AS4" t="s" s="6">
+      <c r="AR4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AT4" t="s" s="6">
+      <c r="AT4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AU4" t="s" s="6">
+      <c r="AU4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
-      <c r="AX4" t="s" s="6">
+      <c r="AX4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AY4" t="s" s="10">
+      <c r="AY4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AZ4" t="s" s="6">
+      <c r="AZ4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BA4" s="11"/>
+      <c r="BA4" s="31"/>
     </row>
-    <row r="5" ht="26.5" customHeight="1">
-      <c r="A5" s="55">
+    <row r="5" ht="26.5" customHeight="1" spans="1:53">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="56">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s" s="56">
-        <v>93</v>
-      </c>
-      <c r="D5" s="57">
+      <c r="B5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="18">
         <f>F5*G5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="18">
         <f>35.315*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" t="s" s="56">
-        <v>94</v>
-      </c>
-      <c r="L5" t="s" s="56">
-        <v>95</v>
-      </c>
-      <c r="M5" t="s" s="56">
+      <c r="K5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="59">
+      <c r="L5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="19">
         <v>0</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="8">
         <v>0</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="8">
         <v>0</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="8">
         <f>P5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="19">
         <v>0</v>
       </c>
-      <c r="S5" s="60">
+      <c r="S5" s="20">
         <f>Q5-Q5/(1+R5)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="19">
         <v>0</v>
       </c>
-      <c r="U5" t="s" s="61">
+      <c r="U5" s="22" t="str">
         <f>T5*100&amp;"%"</f>
-        <v>97</v>
-      </c>
-      <c r="V5" s="62">
+        <v>0%</v>
+      </c>
+      <c r="V5" s="23">
         <f>Q5*U5</f>
         <v>0</v>
       </c>
-      <c r="W5" s="55">
+      <c r="W5" s="8">
         <v>0</v>
       </c>
-      <c r="X5" s="55">
+      <c r="X5" s="8">
         <v>0</v>
       </c>
-      <c r="Y5" s="59">
+      <c r="Y5" s="19">
         <v>0</v>
       </c>
-      <c r="Z5" s="59">
+      <c r="Z5" s="19">
         <f>Q5*Y5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="59">
+      <c r="AA5" s="19">
         <v>0</v>
       </c>
-      <c r="AB5" s="59">
+      <c r="AB5" s="19">
         <f>IF(K5="GB",AA5*N5,AA5)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="55">
+      <c r="AC5" s="8">
         <v>0</v>
       </c>
-      <c r="AD5" s="62">
+      <c r="AD5" s="23">
         <f>AC5*Q5</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="55">
+      <c r="AE5" s="8">
         <v>0</v>
       </c>
-      <c r="AF5" s="59">
+      <c r="AF5" s="19">
         <v>0</v>
       </c>
-      <c r="AG5" s="62">
+      <c r="AG5" s="23">
         <f>IF(K5="GB",AF5*J5,AF5*I5)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="62">
+      <c r="AH5" s="23">
         <v>0</v>
       </c>
-      <c r="AI5" s="59">
+      <c r="AI5" s="19">
         <v>0</v>
       </c>
-      <c r="AJ5" s="62">
+      <c r="AJ5" s="23">
         <f>AI5*(Q5-S5-V5-W5-X5-Z5-AB5-AD5-AE5-AG5)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="59">
+      <c r="AK5" s="19">
         <v>0</v>
       </c>
-      <c r="AL5" s="59">
+      <c r="AL5" s="19">
         <f>AK5*E5</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="59">
+      <c r="AM5" s="19">
         <v>0</v>
       </c>
-      <c r="AN5" s="59">
+      <c r="AN5" s="19">
         <f>AM5*E5</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="59">
+      <c r="AO5" s="19">
         <v>0</v>
       </c>
-      <c r="AP5" s="59">
+      <c r="AP5" s="19">
         <f>AO5*E5</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="59">
+      <c r="AQ5" s="19">
         <v>0</v>
       </c>
-      <c r="AR5" s="59">
+      <c r="AR5" s="19">
         <f>AQ5*E5</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="59">
+      <c r="AS5" s="19">
         <v>0</v>
       </c>
-      <c r="AT5" s="59">
+      <c r="AT5" s="19">
         <f>AS5*E5</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="59">
+      <c r="AU5" s="19">
         <f>AL5+AN5+AP5+AR5+AT5</f>
         <v>0</v>
       </c>
-      <c r="AV5" s="59">
+      <c r="AV5" s="19">
         <f>IF((Q5-S5-V5-Z5-AB5-AD5-AE5-AG5-AJ5-AU5)&lt;1,Q5*0.3,Q5-S5-V5-Z5-AB5-AD5-AE5-AG5-AJ5-AU5)</f>
         <v>0</v>
       </c>
-      <c r="AW5" s="59">
+      <c r="AW5" s="19">
         <f>AV5/(1+AY5)</f>
         <v>0</v>
       </c>
-      <c r="AX5" s="63">
+      <c r="AX5" s="25">
         <v>0</v>
       </c>
-      <c r="AY5" t="s" s="64">
+      <c r="AY5" s="26" t="str">
         <f>AX5*100&amp;"%"</f>
-        <v>97</v>
-      </c>
-      <c r="AZ5" s="65">
+        <v>0%</v>
+      </c>
+      <c r="AZ5" s="27">
         <f>AW5*AX5</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="66">
+      <c r="BA5" s="32">
         <f>AW5*D5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="67"/>
+    <row r="6" ht="16" customHeight="1" spans="1:53">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="33"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="35"/>
+    <row r="7" ht="16" customHeight="1" spans="1:53">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="34"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="35"/>
+    <row r="8" ht="16" customHeight="1" spans="1:53">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="34"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="35"/>
+    <row r="9" ht="16" customHeight="1" spans="1:53">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="34"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="69"/>
+    <row r="10" ht="16" customHeight="1" spans="1:53">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4609,7 +5243,7 @@
     <mergeCell ref="BA3:BA4"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/template/ebay.xlsx
+++ b/template/ebay.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
   <si>
     <t>European eBay Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -72,16 +72,16 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>NL LOCAL Cost(Euro/ KG)</t>
+    <t>LOCAL Cost(Euro/ KG)</t>
   </si>
   <si>
     <t xml:space="preserve"> Rate + freight outside EU incl Duty (In Euro)</t>
   </si>
   <si>
-    <t>Customs Value includes freight cost occurred outside EU-NL (In Euro)</t>
-  </si>
-  <si>
-    <t>NL Duty</t>
+    <t>Customs Value includes freight cost occurred outside EU(In Euro)</t>
+  </si>
+  <si>
+    <t>Duty</t>
   </si>
   <si>
     <t>Total Customs Value</t>
@@ -186,13 +186,13 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>NL Duty Rate</t>
-  </si>
-  <si>
-    <t>NL Duty Rate(%)</t>
-  </si>
-  <si>
-    <t>NL Duty Amount</t>
+    <t>Duty Rate</t>
+  </si>
+  <si>
+    <t>Duty Rate(%)</t>
+  </si>
+  <si>
+    <t>Duty Amount</t>
   </si>
   <si>
     <t>Information Source</t>
@@ -387,7 +387,7 @@
     <t xml:space="preserve">                                                                   Powered by</t>
   </si>
   <si>
-    <t>ASL Dutch</t>
+    <t>ASL</t>
   </si>
   <si>
     <t>European Amazon Declared Value-Analysis Report</t>
@@ -405,6 +405,15 @@
     <t>Amazon cost(In Euro)</t>
   </si>
   <si>
+    <t>NL LOCAL Cost(Euro/ KG)</t>
+  </si>
+  <si>
+    <t>Customs Value includes freight cost occurred outside EU-NL (In Euro)</t>
+  </si>
+  <si>
+    <t>NL Duty</t>
+  </si>
+  <si>
     <t>Referral rares</t>
   </si>
   <si>
@@ -436,6 +445,15 @@
   </si>
   <si>
     <t>Delivery To Amazon</t>
+  </si>
+  <si>
+    <t>NL Duty Rate</t>
+  </si>
+  <si>
+    <t>NL Duty Rate(%)</t>
+  </si>
+  <si>
+    <t>NL Duty Amount</t>
   </si>
   <si>
     <t>AsinCode</t>
@@ -458,17 +476,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="#,##0&quot; &quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00000000&quot; &quot;"/>
+    <numFmt numFmtId="181" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="#,##0&quot; &quot;"/>
-    <numFmt numFmtId="181" formatCode="0.00&quot; &quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.00000000&quot; &quot;"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -516,6 +534,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -532,16 +551,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,8 +580,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -569,7 +613,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,83 +680,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,7 +719,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,19 +773,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,19 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,67 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,37 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,9 +1073,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,16 +1086,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,11 +1123,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,165 +1160,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,7 +1339,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1333,15 +1351,15 @@
     <xf numFmtId="181" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1354,13 +1372,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1408,16 +1426,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,24 +1444,24 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3171,8 +3189,8 @@
   <sheetPr/>
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
@@ -4602,7 +4620,7 @@
       </c>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="6" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
@@ -4618,10 +4636,10 @@
         <v>19</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
@@ -4662,13 +4680,13 @@
         <v>28</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>32</v>
@@ -4677,16 +4695,16 @@
         <v>33</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>38</v>
@@ -4695,7 +4713,7 @@
         <v>39</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AF4" s="6" t="s">
         <v>41</v>
@@ -4713,10 +4731,10 @@
         <v>17</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>47</v>
@@ -4734,7 +4752,7 @@
         <v>51</v>
       </c>
       <c r="AR4" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AS4" s="6" t="s">
         <v>53</v>
@@ -4748,13 +4766,13 @@
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
       <c r="AX4" s="6" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AY4" s="21" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="BA4" s="31"/>
     </row>
@@ -4763,10 +4781,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -4792,13 +4810,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N5" s="19">
         <v>0</v>

--- a/template/ebay.xlsx
+++ b/template/ebay.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15640"/>
+    <workbookView windowWidth="30880" windowHeight="14820"/>
   </bookViews>
   <sheets>
-    <sheet name="LWT for Amzon" sheetId="1" r:id="rId1"/>
+    <sheet name="LWT for Ebay" sheetId="1" r:id="rId1"/>
     <sheet name="公式模版" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>European eBay Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -69,9 +82,6 @@
     <t>eBay cost(In Euro)</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>LOCAL Cost(Euro/ KG)</t>
   </si>
   <si>
@@ -114,12 +124,6 @@
     <t>Commission Fees</t>
   </si>
   <si>
-    <t>Closing Fee</t>
-  </si>
-  <si>
-    <t>High volume lising Fee</t>
-  </si>
-  <si>
     <t>PayPal Processing rate</t>
   </si>
   <si>
@@ -145,12 +149,6 @@
   </si>
   <si>
     <t>Storage Fee</t>
-  </si>
-  <si>
-    <t>Advertising Fee</t>
-  </si>
-  <si>
-    <t>Profit Rate</t>
   </si>
   <si>
     <t>Ground Service Rate</t>
@@ -405,6 +403,9 @@
     <t>Amazon cost(In Euro)</t>
   </si>
   <si>
+    <t>Profit</t>
+  </si>
+  <si>
     <t>NL LOCAL Cost(Euro/ KG)</t>
   </si>
   <si>
@@ -423,6 +424,12 @@
     <t>Referral Fees</t>
   </si>
   <si>
+    <t>Closing Fee</t>
+  </si>
+  <si>
+    <t>High volume lising Fee</t>
+  </si>
+  <si>
     <t>Processing rate</t>
   </si>
   <si>
@@ -436,6 +443,12 @@
   </si>
   <si>
     <t>Fulfillment fee</t>
+  </si>
+  <si>
+    <t>Advertising Fee</t>
+  </si>
+  <si>
+    <t>Profit Rate</t>
   </si>
   <si>
     <t>Ground Sercice Rate</t>
@@ -474,19 +487,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="#,##0&quot; &quot;"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00000000&quot; &quot;"/>
-    <numFmt numFmtId="181" formatCode="0.00&quot; &quot;"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot; &quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00000000&quot; &quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="181" formatCode="0.000000"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -534,37 +547,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -572,11 +554,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,16 +601,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,7 +649,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,44 +692,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,13 +732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,43 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +780,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,13 +870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,73 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,41 +1084,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1130,17 +1108,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,6 +1132,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1168,151 +1170,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,7 +1352,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1348,18 +1361,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1372,13 +1385,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1450,69 +1463,69 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1779,13 +1792,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>547839</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>223287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>69378</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>269783</xdr:rowOff>
@@ -1797,7 +1810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16835755" y="661035"/>
+          <a:off x="15921990" y="661035"/>
           <a:ext cx="197485" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1871,13 +1884,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>624111</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>227732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>18506</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>274228</xdr:rowOff>
@@ -1889,7 +1902,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18263235" y="665480"/>
+          <a:off x="17349470" y="665480"/>
           <a:ext cx="177165" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1963,13 +1976,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>982027</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>220112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>206686</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>266608</xdr:rowOff>
@@ -1981,7 +1994,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21148675" y="657860"/>
+          <a:off x="20234910" y="657860"/>
           <a:ext cx="206375" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2055,13 +2068,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>472211</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>204036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>204870</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>250532</xdr:rowOff>
@@ -2073,7 +2086,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22285325" y="641985"/>
+          <a:off x="21371560" y="641985"/>
           <a:ext cx="230505" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3187,10 +3200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:AV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
@@ -3210,35 +3223,32 @@
     <col min="20" max="20" width="10.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
     <col min="22" max="22" width="12.8482142857143" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.34821428571429" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5" style="1" customWidth="1"/>
-    <col min="25" max="26" width="9.5" style="1" customWidth="1"/>
-    <col min="27" max="28" width="11" style="1" customWidth="1"/>
-    <col min="29" max="30" width="13.6696428571429" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.34821428571429" style="1" customWidth="1"/>
-    <col min="32" max="33" width="7" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.34821428571429" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9.5" style="1" customWidth="1"/>
+    <col min="25" max="26" width="11" style="1" customWidth="1"/>
+    <col min="27" max="28" width="13.6696428571429" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.34821428571429" style="1" customWidth="1"/>
+    <col min="30" max="31" width="7" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10" style="1" customWidth="1"/>
+    <col min="33" max="33" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="35" max="35" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="36" max="37" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9" style="1" customWidth="1"/>
     <col min="39" max="39" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.3482142857143" style="1" customWidth="1"/>
-    <col min="41" max="42" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="45" max="46" width="13" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.8482142857143" style="1" customWidth="1"/>
-    <col min="49" max="49" width="19" style="1" customWidth="1"/>
-    <col min="50" max="50" width="8" style="1" customWidth="1"/>
-    <col min="51" max="51" width="8.5" style="1" customWidth="1"/>
-    <col min="52" max="52" width="9.84821428571429" style="1" customWidth="1"/>
-    <col min="53" max="53" width="13.8482142857143" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="40" max="41" width="13" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.8482142857143" style="1" customWidth="1"/>
+    <col min="44" max="44" width="19" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8" style="1" customWidth="1"/>
+    <col min="46" max="46" width="8.5" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9.84821428571429" style="1" customWidth="1"/>
+    <col min="48" max="48" width="13.8482142857143" style="1" customWidth="1"/>
+    <col min="49" max="16379" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="16380" max="16380" width="8.84821428571429" style="1"/>
+    <col min="16381" max="16384" width="8.83035714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1" spans="1:53">
+    <row r="1" ht="34.5" customHeight="1" spans="1:48">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3287,15 +3297,10 @@
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="65"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="62"/>
     </row>
-    <row r="2" ht="26.5" customHeight="1" spans="1:53">
+    <row r="2" ht="26.5" customHeight="1" spans="1:48">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3359,42 +3364,35 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="AF2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
+      <c r="AQ2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
-      <c r="AV2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AV2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="30" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:53">
+    <row r="3" ht="60" customHeight="1" spans="1:48">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3409,73 +3407,73 @@
       <c r="L3" s="17"/>
       <c r="M3" s="7"/>
       <c r="N3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="V3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="AK3" s="6" t="s">
         <v>45</v>
@@ -3495,35 +3493,20 @@
       <c r="AP3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AT3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AU3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AT3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA3" s="31"/>
+      <c r="AV3" s="31"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:53">
+    <row r="4" ht="14.25" customHeight="1" spans="1:48">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3546,39 +3529,34 @@
       <c r="T4" s="57"/>
       <c r="U4" s="12"/>
       <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
+      <c r="W4" s="57"/>
       <c r="X4" s="46"/>
       <c r="Y4" s="57"/>
       <c r="Z4" s="46"/>
       <c r="AA4" s="57"/>
       <c r="AB4" s="46"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="57"/>
       <c r="AE4" s="46"/>
       <c r="AF4" s="57"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="46"/>
       <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
+      <c r="AK4" s="46"/>
       <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="57"/>
       <c r="AO4" s="57"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="46"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
       <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="66"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="64"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:53">
+    <row r="5" ht="14.25" customHeight="1" spans="1:48">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -3601,41 +3579,36 @@
       <c r="T5" s="58"/>
       <c r="U5" s="14"/>
       <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
+      <c r="W5" s="58"/>
       <c r="X5" s="48"/>
       <c r="Y5" s="58"/>
       <c r="Z5" s="48"/>
       <c r="AA5" s="58"/>
       <c r="AB5" s="48"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="58"/>
       <c r="AE5" s="48"/>
       <c r="AF5" s="58"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="48"/>
       <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
+      <c r="AK5" s="48"/>
       <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="58"/>
       <c r="AO5" s="58"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="48"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
       <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="67"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="66"/>
     </row>
-    <row r="6" ht="20.25" customHeight="1" spans="1:53">
+    <row r="6" ht="20.25" customHeight="1" spans="1:48">
       <c r="A6" s="36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -3658,48 +3631,43 @@
       <c r="T6" s="58"/>
       <c r="U6" s="14"/>
       <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
+      <c r="W6" s="58"/>
       <c r="X6" s="48"/>
       <c r="Y6" s="58"/>
       <c r="Z6" s="48"/>
       <c r="AA6" s="58"/>
       <c r="AB6" s="48"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="58"/>
       <c r="AE6" s="48"/>
       <c r="AF6" s="58"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="48"/>
       <c r="AJ6" s="58"/>
-      <c r="AK6" s="58"/>
+      <c r="AK6" s="48"/>
       <c r="AL6" s="58"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="58"/>
       <c r="AO6" s="58"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="48"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
       <c r="AS6" s="58"/>
-      <c r="AT6" s="58"/>
-      <c r="AU6" s="58"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="58"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="67"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="66"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="1:53">
+    <row r="7" ht="16.5" customHeight="1" spans="1:48">
       <c r="A7" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
@@ -3744,23 +3712,18 @@
       <c r="AS7" s="14"/>
       <c r="AT7" s="14"/>
       <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="34"/>
+      <c r="AV7" s="34"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:53">
+    <row r="8" ht="16.5" customHeight="1" spans="1:48">
       <c r="A8" s="39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -3805,23 +3768,18 @@
       <c r="AS8" s="14"/>
       <c r="AT8" s="14"/>
       <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="34"/>
+      <c r="AV8" s="34"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1" spans="1:53">
+    <row r="9" ht="16.5" customHeight="1" spans="1:48">
       <c r="A9" s="39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
@@ -3866,21 +3824,16 @@
       <c r="AS9" s="14"/>
       <c r="AT9" s="14"/>
       <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="34"/>
+      <c r="AV9" s="34"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:53">
+    <row r="10" ht="15" customHeight="1" spans="1:48">
       <c r="A10" s="39" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
       <c r="D10" s="41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -3925,16 +3878,11 @@
       <c r="AS10" s="14"/>
       <c r="AT10" s="14"/>
       <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="34"/>
+      <c r="AV10" s="34"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:53">
+    <row r="11" ht="15" customHeight="1" spans="1:48">
       <c r="A11" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="38"/>
@@ -3982,16 +3930,11 @@
       <c r="AS11" s="14"/>
       <c r="AT11" s="14"/>
       <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="34"/>
+      <c r="AV11" s="34"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:53">
+    <row r="12" ht="15" customHeight="1" spans="1:48">
       <c r="A12" s="39" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
@@ -4039,23 +3982,18 @@
       <c r="AS12" s="14"/>
       <c r="AT12" s="14"/>
       <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="34"/>
+      <c r="AV12" s="34"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1" spans="1:53">
+    <row r="13" ht="16.5" customHeight="1" spans="1:48">
       <c r="A13" s="39" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -4100,19 +4038,14 @@
       <c r="AS13" s="14"/>
       <c r="AT13" s="14"/>
       <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="34"/>
+      <c r="AV13" s="34"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:53">
+    <row r="14" ht="15" customHeight="1" spans="1:48">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -4157,20 +4090,15 @@
       <c r="AS14" s="14"/>
       <c r="AT14" s="14"/>
       <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="34"/>
+      <c r="AV14" s="34"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1" spans="1:53">
+    <row r="15" ht="16.5" customHeight="1" spans="1:48">
       <c r="A15" s="39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="37"/>
@@ -4216,14 +4144,9 @@
       <c r="AS15" s="14"/>
       <c r="AT15" s="14"/>
       <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="34"/>
+      <c r="AV15" s="34"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:53">
+    <row r="16" ht="15" customHeight="1" spans="1:48">
       <c r="A16" s="43"/>
       <c r="B16" s="38"/>
       <c r="C16" s="40"/>
@@ -4246,39 +4169,34 @@
       <c r="T16" s="58"/>
       <c r="U16" s="14"/>
       <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
+      <c r="W16" s="58"/>
       <c r="X16" s="48"/>
       <c r="Y16" s="58"/>
       <c r="Z16" s="48"/>
       <c r="AA16" s="58"/>
       <c r="AB16" s="48"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="58"/>
       <c r="AE16" s="48"/>
       <c r="AF16" s="58"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="48"/>
       <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
+      <c r="AK16" s="48"/>
       <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="58"/>
       <c r="AO16" s="58"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="48"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
       <c r="AS16" s="58"/>
-      <c r="AT16" s="58"/>
-      <c r="AU16" s="58"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="58"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="67"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="66"/>
     </row>
-    <row r="17" ht="25.5" customHeight="1" spans="1:53">
+    <row r="17" ht="25.5" customHeight="1" spans="1:48">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -4287,14 +4205,14 @@
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
       <c r="H17" s="56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N17" s="60"/>
       <c r="O17" s="61"/>
@@ -4305,47 +4223,41 @@
       <c r="T17" s="60"/>
       <c r="U17" s="16"/>
       <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
+      <c r="W17" s="60"/>
       <c r="X17" s="61"/>
       <c r="Y17" s="60"/>
       <c r="Z17" s="61"/>
       <c r="AA17" s="60"/>
       <c r="AB17" s="61"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="60"/>
       <c r="AE17" s="61"/>
       <c r="AF17" s="60"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="61"/>
       <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
+      <c r="AK17" s="61"/>
       <c r="AL17" s="60"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="60"/>
       <c r="AO17" s="60"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="60"/>
-      <c r="AR17" s="61"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
       <c r="AS17" s="60"/>
-      <c r="AT17" s="60"/>
-      <c r="AU17" s="60"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="60"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="64"/>
-      <c r="BA17" s="68"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="67"/>
+      <c r="AV17" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:AZ1"/>
+  <mergeCells count="22">
+    <mergeCell ref="A1:AU1"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="T2:AE2"/>
+    <mergeCell ref="AF2:AP2"/>
+    <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4359,9 +4271,9 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="BA2:BA3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId2" display="https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/"/>
@@ -4493,7 +4405,7 @@
     </row>
     <row r="2" ht="34.5" customHeight="1" spans="1:53">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4553,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -4580,7 +4492,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>12</v>
@@ -4589,7 +4501,7 @@
         <v>13</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -4599,7 +4511,7 @@
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -4616,11 +4528,11 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
@@ -4633,18 +4545,18 @@
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
       <c r="AV3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
       <c r="BA3" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:53">
@@ -4662,73 +4574,73 @@
       <c r="L4" s="17"/>
       <c r="M4" s="7"/>
       <c r="N4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="T4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="Y4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="W4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AI4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AF4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="AJ4" s="6" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK4" s="6" t="s">
         <v>94</v>
@@ -4737,31 +4649,31 @@
         <v>95</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AR4" s="6" t="s">
         <v>96</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AT4" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AU4" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
